--- a/Backlog-CaseStudy2.xlsx
+++ b/Backlog-CaseStudy2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuong\OneDrive\Desktop\CodeGym2\CaseStudy2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC98570-BCC1-46D9-9112-66771835ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0364966-73C4-4D17-8151-D7FDED453DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,22 +46,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Menu:
-1. Hiện thị tất cả các nhân viên trong công ty
-2. Hiện thị nhân viên Part-time
-3. Hiện thị nhân viên Full-time
-4. Thêm 1 nhân viên
-5. Xóa 1 nhân viên theo ID
-6. Sửa thông tin nhân viên theo ID
-7. Xem thông tin nhân viên theo ID
-8. Sắp xếp nhân viên theo KPI
-9. Hiện thị thông tin nhân viên có KPI cáo nhất theo thang 10
-10. Đánh giá nhân viên theo KPI
-11. Tính thưởng cho nhân viên theo KPI
-12. Ghi thông tin nhân viên vào file.csv
-13. Đọc thông tin nhân viên từ file.csv</t>
-  </si>
-  <si>
     <t>Là người quản lý tôi muốn đăng nhập bằng tài khoản admin</t>
   </si>
   <si>
@@ -170,6 +154,23 @@
 7. Hình thức làm việc: Full-time o Part-Time
 8. Lương
 9. KPI</t>
+  </si>
+  <si>
+    <t>Menu:
+1. Hiện thị tất cả các nhân viên trong công ty
+2. Hiện thị nhân viên Part-time
+3. Hiện thị nhân viên Full-time
+4. Thêm 1 nhân viên
+5. Xóa 1 nhân viên theo ID
+6. Sửa thông tin nhân viên theo ID
+7. Xem thông tin nhân viên theo ID
+8. Sắp xếp nhân viên theo ID
+9. Sắp xếp nhân viên theo KPI
+10. Hiện thị thông tin nhân viên có KPI cáo nhất theo thang 10
+11. Đánh giá nhân viên theo KPI
+12. Tính thưởng cho nhân viên theo KPI
+13. Ghi thông tin nhân viên vào file.csv
+14. Đọc thông tin nhân viên từ file.csv</t>
   </si>
 </sst>
 </file>
@@ -515,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +548,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -556,12 +557,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -569,10 +570,10 @@
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -580,26 +581,26 @@
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -607,10 +608,10 @@
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
@@ -618,10 +619,10 @@
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -629,10 +630,10 @@
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -640,10 +641,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -651,21 +652,21 @@
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -673,10 +674,10 @@
     </row>
     <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -684,10 +685,10 @@
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -695,10 +696,10 @@
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -706,7 +707,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
